--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianda\Documents\school\CS6140\CS6140_project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBA2D4-ED22-4C28-9AE5-6F5C3B856B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AA382-3264-4EED-89AA-6A66A27C4732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FF4044F-6237-426C-A869-54D8C5A99818}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$34:$I$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
   <si>
     <t>N&lt;p</t>
   </si>
@@ -66,9 +66,6 @@
     <t># Incorrect Diff</t>
   </si>
   <si>
-    <t>Ortho</t>
-  </si>
-  <si>
     <t>Ridge w/ST</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>Ortho Actual: 1, 7, 8, 37</t>
   </si>
   <si>
-    <t>Corr</t>
-  </si>
-  <si>
-    <t>Corr Actual: 1, 7, 23, 24, 26</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -154,6 +145,9 @@
   </si>
   <si>
     <t>3, 24</t>
+  </si>
+  <si>
+    <t>Corr Actual: 1, 23, 24, 26</t>
   </si>
 </sst>
 </file>
@@ -283,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +305,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8F0A1-CF08-40D3-A57C-AE46CE344777}">
   <dimension ref="B1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:I62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,11 +643,8 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -681,13 +675,13 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>7.22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -710,13 +704,13 @@
     </row>
     <row r="4" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>7.08</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -739,13 +733,13 @@
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -768,7 +762,7 @@
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>9.64</v>
@@ -797,7 +791,7 @@
     </row>
     <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>9.5</v>
@@ -826,13 +820,13 @@
     </row>
     <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>10.36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -855,13 +849,13 @@
     </row>
     <row r="9" spans="2:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11">
         <v>8.15</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="11">
         <v>2</v>
@@ -884,10 +878,7 @@
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -918,7 +909,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>8.1999999999999993</v>
@@ -947,13 +938,13 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>7.84</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -976,13 +967,13 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>7.85</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -1005,13 +996,13 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>7.99</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -1034,13 +1025,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>7.48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -1063,13 +1054,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>7.76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
@@ -1092,13 +1083,13 @@
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11">
         <v>6.93</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -1121,10 +1112,7 @@
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,13 +1143,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
         <v>7.35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4">
         <v>3</v>
@@ -1184,13 +1172,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
         <v>7.18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -1213,13 +1201,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>7.18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
         <v>3</v>
@@ -1242,13 +1230,13 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>7.44</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="4">
         <v>3</v>
@@ -1271,13 +1259,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4">
         <v>7.78</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -1300,13 +1288,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4">
         <v>7.95</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4">
         <v>4</v>
@@ -1329,13 +1317,13 @@
     </row>
     <row r="29" spans="2:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="11">
         <v>7.55</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="11">
         <v>3</v>
@@ -1356,15 +1344,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+    </row>
     <row r="34" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1395,13 +1383,13 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4">
         <v>1.42</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -1424,13 +1412,13 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4">
         <v>1.42</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1453,13 +1441,13 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="4">
         <v>1.42</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1482,13 +1470,13 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4">
         <v>1.42</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1511,13 +1499,13 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4">
         <v>1.42</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -1540,13 +1528,13 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
         <v>1.42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="4">
         <v>5</v>
@@ -1569,13 +1557,13 @@
     </row>
     <row r="42" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11">
         <v>1.42</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
@@ -1598,10 +1586,7 @@
     </row>
     <row r="44" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1632,13 +1617,13 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="4">
         <v>1.53</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -1661,13 +1646,13 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="4">
         <v>1.5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -1690,7 +1675,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="4">
         <v>1.43</v>
@@ -1719,7 +1704,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4">
         <v>1.44</v>
@@ -1748,19 +1733,19 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4">
         <v>1.64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="12"/>
@@ -1768,22 +1753,22 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4">
         <v>1.42</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="4">
         <v>5</v>
@@ -1806,7 +1791,7 @@
     </row>
     <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="11">
         <v>1.42</v>
@@ -1835,10 +1820,7 @@
     </row>
     <row r="54" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1869,7 +1851,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="4">
         <v>1.41</v>
@@ -1898,13 +1880,13 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4">
         <v>1.43</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -1927,13 +1909,13 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="4">
         <v>1.47</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -1956,13 +1938,13 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4">
         <v>1.42</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -1985,13 +1967,13 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4">
         <v>1.42</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -2014,13 +1996,13 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="4">
         <v>1.42</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
@@ -2043,13 +2025,13 @@
     </row>
     <row r="62" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="11">
         <v>1.42</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E62" s="11">
         <v>0</v>
